--- a/code/predictive modeling/funkcni/funcni data set - Copy.xlsx
+++ b/code/predictive modeling/funkcni/funcni data set - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/development/github/sws/code/predictive modeling/funkcni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22ACFD7E-32FF-4F71-9A1B-B1F98DC4054C}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5987EAAB-7B69-4E54-93B1-88B18A4D32C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -860,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q64" workbookViewId="0">
-      <selection activeCell="AQ103" sqref="AQ103"/>
+    <sheetView tabSelected="1" topLeftCell="AE89" workbookViewId="0">
+      <selection activeCell="AR107" sqref="AR107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/code/predictive modeling/funkcni/funcni data set - Copy.xlsx
+++ b/code/predictive modeling/funkcni/funcni data set - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f619c9dbaff66258/development/github/sws/code/predictive modeling/funkcni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5987EAAB-7B69-4E54-93B1-88B18A4D32C6}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{7CD2E4E8-1F28-44FE-ADE5-F3B50EE5FD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F41AF642-3A87-400A-B926-C397245051B5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -444,11 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -860,8 +856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DC190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE89" workbookViewId="0">
-      <selection activeCell="AR107" sqref="AR107"/>
+    <sheetView tabSelected="1" topLeftCell="CA28" workbookViewId="0">
+      <selection activeCell="CB106" sqref="CB106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +865,7 @@
     <col min="15" max="15" width="9.140625" style="4"/>
     <col min="16" max="16" width="9.140625" style="9"/>
     <col min="28" max="28" width="9.140625" style="5"/>
-    <col min="41" max="41" width="9.140625" style="14"/>
+    <col min="41" max="41" width="9.140625" style="11"/>
     <col min="54" max="54" width="9.140625" style="7"/>
     <col min="67" max="67" width="9.140625" style="8"/>
     <col min="79" max="79" width="12" customWidth="1"/>
@@ -995,7 +991,7 @@
       <c r="AN1" t="s">
         <v>77</v>
       </c>
-      <c r="AO1" s="14" t="s">
+      <c r="AO1" s="11" t="s">
         <v>79</v>
       </c>
       <c r="AP1" t="s">
@@ -1969,7 +1965,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="14">
+      <c r="AO5" s="11">
         <f>IF(CB5=1,O5-AC5,IF(CB5=2,O5-AD5,O5-AE5))</f>
         <v>9017</v>
       </c>
@@ -2327,7 +2323,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO6" s="14">
+      <c r="AO6" s="11">
         <f t="shared" ref="AO6:AO69" si="10">IF(CB6=1,O6-AC6,IF(CB6=2,O6-AD6,O6-AE6))</f>
         <v>5519</v>
       </c>
@@ -2685,7 +2681,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="14">
+      <c r="AO7" s="11">
         <f t="shared" si="10"/>
         <v>4752</v>
       </c>
@@ -3043,7 +3039,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="14">
+      <c r="AO8" s="11">
         <f t="shared" si="10"/>
         <v>5774</v>
       </c>
@@ -3401,7 +3397,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="14">
+      <c r="AO9" s="11">
         <f t="shared" si="10"/>
         <v>7325</v>
       </c>
@@ -3759,7 +3755,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO10" s="14">
+      <c r="AO10" s="11">
         <f t="shared" si="10"/>
         <v>7478</v>
       </c>
@@ -4117,7 +4113,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AO11" s="14">
+      <c r="AO11" s="11">
         <f t="shared" si="10"/>
         <v>6018</v>
       </c>
@@ -4475,7 +4471,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="14">
+      <c r="AO12" s="11">
         <f t="shared" si="10"/>
         <v>5142</v>
       </c>
@@ -4833,7 +4829,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="14">
+      <c r="AO13" s="11">
         <f t="shared" si="10"/>
         <v>4907</v>
       </c>
@@ -5191,7 +5187,7 @@
         <f t="shared" si="24"/>
         <v>3028</v>
       </c>
-      <c r="AO14" s="14">
+      <c r="AO14" s="11">
         <f t="shared" si="10"/>
         <v>6472</v>
       </c>
@@ -5549,7 +5545,7 @@
         <f t="shared" si="24"/>
         <v>3241</v>
       </c>
-      <c r="AO15" s="14">
+      <c r="AO15" s="11">
         <f t="shared" si="10"/>
         <v>5173</v>
       </c>
@@ -5907,7 +5903,7 @@
         <f t="shared" si="24"/>
         <v>2951</v>
       </c>
-      <c r="AO16" s="14">
+      <c r="AO16" s="11">
         <f t="shared" si="10"/>
         <v>4997</v>
       </c>
@@ -6265,7 +6261,7 @@
         <f t="shared" si="24"/>
         <v>4776</v>
       </c>
-      <c r="AO17" s="14">
+      <c r="AO17" s="11">
         <f t="shared" si="10"/>
         <v>5312</v>
       </c>
@@ -6623,7 +6619,7 @@
         <f t="shared" si="24"/>
         <v>3176</v>
       </c>
-      <c r="AO18" s="14">
+      <c r="AO18" s="11">
         <f t="shared" si="10"/>
         <v>4727</v>
       </c>
@@ -6981,7 +6977,7 @@
         <f t="shared" si="24"/>
         <v>2551</v>
       </c>
-      <c r="AO19" s="14">
+      <c r="AO19" s="11">
         <f t="shared" si="10"/>
         <v>4371</v>
       </c>
@@ -7339,7 +7335,7 @@
         <f t="shared" si="24"/>
         <v>2296</v>
       </c>
-      <c r="AO20" s="14">
+      <c r="AO20" s="11">
         <f t="shared" si="10"/>
         <v>4493</v>
       </c>
@@ -7697,7 +7693,7 @@
         <f t="shared" si="24"/>
         <v>3453</v>
       </c>
-      <c r="AO21" s="14">
+      <c r="AO21" s="11">
         <f t="shared" si="10"/>
         <v>5281</v>
       </c>
@@ -8055,7 +8051,7 @@
         <f t="shared" si="24"/>
         <v>3123</v>
       </c>
-      <c r="AO22" s="14">
+      <c r="AO22" s="11">
         <f t="shared" si="10"/>
         <v>5390</v>
       </c>
@@ -8413,7 +8409,7 @@
         <f t="shared" si="24"/>
         <v>2954</v>
       </c>
-      <c r="AO23" s="14">
+      <c r="AO23" s="11">
         <f t="shared" si="10"/>
         <v>5087</v>
       </c>
@@ -8771,7 +8767,7 @@
         <f t="shared" si="24"/>
         <v>1663</v>
       </c>
-      <c r="AO24" s="14">
+      <c r="AO24" s="11">
         <f t="shared" si="10"/>
         <v>4131</v>
       </c>
@@ -9129,7 +9125,7 @@
         <f t="shared" si="24"/>
         <v>2468</v>
       </c>
-      <c r="AO25" s="14">
+      <c r="AO25" s="11">
         <f t="shared" si="10"/>
         <v>4614</v>
       </c>
@@ -9487,7 +9483,7 @@
         <f t="shared" si="24"/>
         <v>2710</v>
       </c>
-      <c r="AO26" s="14">
+      <c r="AO26" s="11">
         <f t="shared" si="10"/>
         <v>5638</v>
       </c>
@@ -9845,7 +9841,7 @@
         <f t="shared" si="24"/>
         <v>2235</v>
       </c>
-      <c r="AO27" s="14">
+      <c r="AO27" s="11">
         <f t="shared" si="10"/>
         <v>5501</v>
       </c>
@@ -10203,7 +10199,7 @@
         <f t="shared" si="24"/>
         <v>2508</v>
       </c>
-      <c r="AO28" s="14">
+      <c r="AO28" s="11">
         <f t="shared" si="10"/>
         <v>5415</v>
       </c>
@@ -10561,7 +10557,7 @@
         <f t="shared" si="24"/>
         <v>2384</v>
       </c>
-      <c r="AO29" s="14">
+      <c r="AO29" s="11">
         <f t="shared" si="10"/>
         <v>5123</v>
       </c>
@@ -10919,7 +10915,7 @@
         <f t="shared" si="24"/>
         <v>2152</v>
       </c>
-      <c r="AO30" s="14">
+      <c r="AO30" s="11">
         <f t="shared" si="10"/>
         <v>5554</v>
       </c>
@@ -11277,7 +11273,7 @@
         <f t="shared" si="24"/>
         <v>1804</v>
       </c>
-      <c r="AO31" s="14">
+      <c r="AO31" s="11">
         <f t="shared" si="10"/>
         <v>4945</v>
       </c>
@@ -11635,7 +11631,7 @@
         <f t="shared" si="24"/>
         <v>2000</v>
       </c>
-      <c r="AO32" s="14">
+      <c r="AO32" s="11">
         <f t="shared" si="10"/>
         <v>5430</v>
       </c>
@@ -11993,7 +11989,7 @@
         <f t="shared" si="24"/>
         <v>2440</v>
       </c>
-      <c r="AO33" s="14">
+      <c r="AO33" s="11">
         <f t="shared" si="10"/>
         <v>5516</v>
       </c>
@@ -12351,7 +12347,7 @@
         <f t="shared" si="28"/>
         <v>2515</v>
       </c>
-      <c r="AO34" s="14">
+      <c r="AO34" s="11">
         <f t="shared" si="10"/>
         <v>6438</v>
       </c>
@@ -12709,7 +12705,7 @@
         <f t="shared" si="28"/>
         <v>2625</v>
       </c>
-      <c r="AO35" s="14">
+      <c r="AO35" s="11">
         <f t="shared" si="10"/>
         <v>5984</v>
       </c>
@@ -13067,7 +13063,7 @@
         <f t="shared" si="28"/>
         <v>1739</v>
       </c>
-      <c r="AO36" s="14">
+      <c r="AO36" s="11">
         <f t="shared" si="10"/>
         <v>4363</v>
       </c>
@@ -13425,7 +13421,7 @@
         <f t="shared" si="28"/>
         <v>2552</v>
       </c>
-      <c r="AO37" s="14">
+      <c r="AO37" s="11">
         <f t="shared" si="10"/>
         <v>5324</v>
       </c>
@@ -13783,7 +13779,7 @@
         <f t="shared" si="28"/>
         <v>2490</v>
       </c>
-      <c r="AO38" s="14">
+      <c r="AO38" s="11">
         <f t="shared" si="10"/>
         <v>6476</v>
       </c>
@@ -14141,7 +14137,7 @@
         <f t="shared" si="28"/>
         <v>2971</v>
       </c>
-      <c r="AO39" s="14">
+      <c r="AO39" s="11">
         <f t="shared" si="10"/>
         <v>5486</v>
       </c>
@@ -14499,7 +14495,7 @@
         <f t="shared" si="28"/>
         <v>2530</v>
       </c>
-      <c r="AO40" s="14">
+      <c r="AO40" s="11">
         <f t="shared" si="10"/>
         <v>5391</v>
       </c>
@@ -14857,7 +14853,7 @@
         <f t="shared" si="28"/>
         <v>2581</v>
       </c>
-      <c r="AO41" s="14">
+      <c r="AO41" s="11">
         <f t="shared" si="10"/>
         <v>6013</v>
       </c>
@@ -15215,7 +15211,7 @@
         <f t="shared" si="28"/>
         <v>2261</v>
       </c>
-      <c r="AO42" s="14">
+      <c r="AO42" s="11">
         <f t="shared" si="10"/>
         <v>6304</v>
       </c>
@@ -15573,7 +15569,7 @@
         <f t="shared" si="28"/>
         <v>1865</v>
       </c>
-      <c r="AO43" s="14">
+      <c r="AO43" s="11">
         <f t="shared" si="10"/>
         <v>5861</v>
       </c>
@@ -15931,7 +15927,7 @@
         <f t="shared" si="28"/>
         <v>2081</v>
       </c>
-      <c r="AO44" s="14">
+      <c r="AO44" s="11">
         <f t="shared" si="10"/>
         <v>6150</v>
       </c>
@@ -16289,7 +16285,7 @@
         <f t="shared" si="28"/>
         <v>2204</v>
       </c>
-      <c r="AO45" s="14">
+      <c r="AO45" s="11">
         <f t="shared" si="10"/>
         <v>6249</v>
       </c>
@@ -16647,7 +16643,7 @@
         <f t="shared" si="28"/>
         <v>2713</v>
       </c>
-      <c r="AO46" s="14">
+      <c r="AO46" s="11">
         <f t="shared" si="10"/>
         <v>7060</v>
       </c>
@@ -17005,7 +17001,7 @@
         <f t="shared" si="28"/>
         <v>2430</v>
       </c>
-      <c r="AO47" s="14">
+      <c r="AO47" s="11">
         <f t="shared" si="10"/>
         <v>6501</v>
       </c>
@@ -17363,7 +17359,7 @@
         <f t="shared" si="28"/>
         <v>1359</v>
       </c>
-      <c r="AO48" s="14">
+      <c r="AO48" s="11">
         <f t="shared" si="10"/>
         <v>7722</v>
       </c>
@@ -17721,7 +17717,7 @@
         <f t="shared" si="28"/>
         <v>2541</v>
       </c>
-      <c r="AO49" s="14">
+      <c r="AO49" s="11">
         <f t="shared" si="10"/>
         <v>5962</v>
       </c>
@@ -18079,7 +18075,7 @@
         <f t="shared" si="28"/>
         <v>2308</v>
       </c>
-      <c r="AO50" s="14">
+      <c r="AO50" s="11">
         <f t="shared" si="10"/>
         <v>6016</v>
       </c>
@@ -18437,7 +18433,7 @@
         <f t="shared" si="28"/>
         <v>2224</v>
       </c>
-      <c r="AO51" s="14">
+      <c r="AO51" s="11">
         <f t="shared" si="10"/>
         <v>4996</v>
       </c>
@@ -18795,7 +18791,7 @@
         <f t="shared" si="28"/>
         <v>2201</v>
       </c>
-      <c r="AO52" s="14">
+      <c r="AO52" s="11">
         <f t="shared" si="10"/>
         <v>5875</v>
       </c>
@@ -19153,7 +19149,7 @@
         <f t="shared" si="28"/>
         <v>2333</v>
       </c>
-      <c r="AO53" s="14">
+      <c r="AO53" s="11">
         <f t="shared" si="10"/>
         <v>6312</v>
       </c>
@@ -19511,7 +19507,7 @@
         <f t="shared" si="28"/>
         <v>2387</v>
       </c>
-      <c r="AO54" s="14">
+      <c r="AO54" s="11">
         <f t="shared" si="10"/>
         <v>5810</v>
       </c>
@@ -19869,7 +19865,7 @@
         <f t="shared" si="28"/>
         <v>2003</v>
       </c>
-      <c r="AO55" s="14">
+      <c r="AO55" s="11">
         <f t="shared" si="10"/>
         <v>5748</v>
       </c>
@@ -20227,7 +20223,7 @@
         <f t="shared" si="28"/>
         <v>2304</v>
       </c>
-      <c r="AO56" s="14">
+      <c r="AO56" s="11">
         <f t="shared" si="10"/>
         <v>4975</v>
       </c>
@@ -20585,7 +20581,7 @@
         <f t="shared" si="34"/>
         <v>2337</v>
       </c>
-      <c r="AO57" s="14">
+      <c r="AO57" s="11">
         <f t="shared" si="10"/>
         <v>5384</v>
       </c>
@@ -20943,7 +20939,7 @@
         <f t="shared" si="34"/>
         <v>2479</v>
       </c>
-      <c r="AO58" s="14">
+      <c r="AO58" s="11">
         <f t="shared" si="10"/>
         <v>5634</v>
       </c>
@@ -21301,7 +21297,7 @@
         <f t="shared" si="34"/>
         <v>2203</v>
       </c>
-      <c r="AO59" s="14">
+      <c r="AO59" s="11">
         <f t="shared" si="10"/>
         <v>5605</v>
       </c>
@@ -21659,7 +21655,7 @@
         <f t="shared" si="34"/>
         <v>3359</v>
       </c>
-      <c r="AO60" s="14">
+      <c r="AO60" s="11">
         <f t="shared" si="10"/>
         <v>4213</v>
       </c>
@@ -22017,7 +22013,7 @@
         <f t="shared" si="34"/>
         <v>2176</v>
       </c>
-      <c r="AO61" s="14">
+      <c r="AO61" s="11">
         <f t="shared" si="10"/>
         <v>4387</v>
       </c>
@@ -22375,7 +22371,7 @@
         <f t="shared" si="34"/>
         <v>1872</v>
       </c>
-      <c r="AO62" s="14">
+      <c r="AO62" s="11">
         <f t="shared" si="10"/>
         <v>4275</v>
       </c>
@@ -22733,7 +22729,7 @@
         <f t="shared" si="34"/>
         <v>2073</v>
       </c>
-      <c r="AO63" s="14">
+      <c r="AO63" s="11">
         <f t="shared" si="10"/>
         <v>4665</v>
       </c>
@@ -23091,7 +23087,7 @@
         <f t="shared" si="34"/>
         <v>1878</v>
       </c>
-      <c r="AO64" s="14">
+      <c r="AO64" s="11">
         <f t="shared" si="10"/>
         <v>4013</v>
       </c>
@@ -23449,7 +23445,7 @@
         <f t="shared" si="34"/>
         <v>2069</v>
       </c>
-      <c r="AO65" s="14">
+      <c r="AO65" s="11">
         <f t="shared" si="10"/>
         <v>5518</v>
       </c>
@@ -23807,7 +23803,7 @@
         <f t="shared" si="34"/>
         <v>1782</v>
       </c>
-      <c r="AO66" s="14">
+      <c r="AO66" s="11">
         <f t="shared" si="10"/>
         <v>5515</v>
       </c>
@@ -24165,7 +24161,7 @@
         <f t="shared" si="34"/>
         <v>1573</v>
       </c>
-      <c r="AO67" s="14">
+      <c r="AO67" s="11">
         <f t="shared" si="10"/>
         <v>4610</v>
       </c>
@@ -24523,7 +24519,7 @@
         <f t="shared" si="34"/>
         <v>1388</v>
       </c>
-      <c r="AO68" s="14">
+      <c r="AO68" s="11">
         <f t="shared" si="10"/>
         <v>4689</v>
       </c>
@@ -24881,7 +24877,7 @@
         <f t="shared" si="34"/>
         <v>1787</v>
       </c>
-      <c r="AO69" s="14">
+      <c r="AO69" s="11">
         <f t="shared" si="10"/>
         <v>4852</v>
       </c>
@@ -25239,8 +25235,8 @@
         <f t="shared" si="34"/>
         <v>1888</v>
       </c>
-      <c r="AO70" s="14">
-        <f t="shared" ref="AO70:AO99" si="43">IF(CB70=1,O70-AC70,IF(CB70=2,O70-AD70,O70-AE70))</f>
+      <c r="AO70" s="11">
+        <f t="shared" ref="AO70:AO98" si="43">IF(CB70=1,O70-AC70,IF(CB70=2,O70-AD70,O70-AE70))</f>
         <v>5253</v>
       </c>
       <c r="AP70">
@@ -25597,7 +25593,7 @@
         <f t="shared" si="34"/>
         <v>1744</v>
       </c>
-      <c r="AO71" s="14">
+      <c r="AO71" s="11">
         <f t="shared" si="43"/>
         <v>5146</v>
       </c>
@@ -25955,7 +25951,7 @@
         <f t="shared" si="34"/>
         <v>954</v>
       </c>
-      <c r="AO72" s="14">
+      <c r="AO72" s="11">
         <f t="shared" si="43"/>
         <v>4258</v>
       </c>
@@ -26313,7 +26309,7 @@
         <f t="shared" si="34"/>
         <v>1699</v>
       </c>
-      <c r="AO73" s="14">
+      <c r="AO73" s="11">
         <f t="shared" si="43"/>
         <v>4531</v>
       </c>
@@ -26671,7 +26667,7 @@
         <f t="shared" si="34"/>
         <v>1447</v>
       </c>
-      <c r="AO74" s="14">
+      <c r="AO74" s="11">
         <f t="shared" si="43"/>
         <v>4504</v>
       </c>
@@ -27029,7 +27025,7 @@
         <f t="shared" si="34"/>
         <v>1417</v>
       </c>
-      <c r="AO75" s="14">
+      <c r="AO75" s="11">
         <f t="shared" si="43"/>
         <v>4957</v>
       </c>
@@ -27387,7 +27383,7 @@
         <f t="shared" si="34"/>
         <v>1519</v>
       </c>
-      <c r="AO76" s="14">
+      <c r="AO76" s="11">
         <f t="shared" si="43"/>
         <v>4060</v>
       </c>
@@ -27745,7 +27741,7 @@
         <f t="shared" si="34"/>
         <v>2251</v>
       </c>
-      <c r="AO77" s="14">
+      <c r="AO77" s="11">
         <f t="shared" si="43"/>
         <v>4328</v>
       </c>
@@ -28103,7 +28099,7 @@
         <f t="shared" si="34"/>
         <v>2035</v>
       </c>
-      <c r="AO78" s="14">
+      <c r="AO78" s="11">
         <f t="shared" si="43"/>
         <v>3754</v>
       </c>
@@ -28461,7 +28457,7 @@
         <f t="shared" si="34"/>
         <v>1721</v>
       </c>
-      <c r="AO79" s="14">
+      <c r="AO79" s="11">
         <f t="shared" si="43"/>
         <v>2965</v>
       </c>
@@ -28819,7 +28815,7 @@
         <f t="shared" si="58"/>
         <v>1730</v>
       </c>
-      <c r="AO80" s="14">
+      <c r="AO80" s="11">
         <f t="shared" si="43"/>
         <v>2948</v>
       </c>
@@ -29177,7 +29173,7 @@
         <f t="shared" si="58"/>
         <v>1925</v>
       </c>
-      <c r="AO81" s="14">
+      <c r="AO81" s="11">
         <f t="shared" si="43"/>
         <v>2910</v>
       </c>
@@ -29535,7 +29531,7 @@
         <f t="shared" si="58"/>
         <v>2016</v>
       </c>
-      <c r="AO82" s="14">
+      <c r="AO82" s="11">
         <f t="shared" si="43"/>
         <v>3075</v>
       </c>
@@ -29893,7 +29889,7 @@
         <f t="shared" si="58"/>
         <v>1895</v>
       </c>
-      <c r="AO83" s="14">
+      <c r="AO83" s="11">
         <f t="shared" si="43"/>
         <v>3555</v>
       </c>
@@ -30251,7 +30247,7 @@
         <f t="shared" si="58"/>
         <v>1270</v>
       </c>
-      <c r="AO84" s="14">
+      <c r="AO84" s="11">
         <f t="shared" si="43"/>
         <v>2996</v>
       </c>
@@ -30609,7 +30605,7 @@
         <f t="shared" si="58"/>
         <v>2022</v>
       </c>
-      <c r="AO85" s="14">
+      <c r="AO85" s="11">
         <f t="shared" si="43"/>
         <v>3085</v>
       </c>
@@ -30967,7 +30963,7 @@
         <f t="shared" si="58"/>
         <v>1787</v>
       </c>
-      <c r="AO86" s="14">
+      <c r="AO86" s="11">
         <f t="shared" si="43"/>
         <v>3163</v>
       </c>
@@ -31325,7 +31321,7 @@
         <f t="shared" si="58"/>
         <v>1969</v>
       </c>
-      <c r="AO87" s="14">
+      <c r="AO87" s="11">
         <f t="shared" si="43"/>
         <v>3962</v>
       </c>
@@ -31683,7 +31679,7 @@
         <f t="shared" si="58"/>
         <v>2016</v>
       </c>
-      <c r="AO88" s="14">
+      <c r="AO88" s="11">
         <f t="shared" si="43"/>
         <v>4348</v>
       </c>
@@ -32041,7 +32037,7 @@
         <f t="shared" si="58"/>
         <v>2013</v>
       </c>
-      <c r="AO89" s="14">
+      <c r="AO89" s="11">
         <f t="shared" si="43"/>
         <v>4372</v>
       </c>
@@ -32399,7 +32395,7 @@
         <f t="shared" si="58"/>
         <v>1949</v>
       </c>
-      <c r="AO90" s="14">
+      <c r="AO90" s="11">
         <f t="shared" si="43"/>
         <v>4804</v>
       </c>
@@ -32757,7 +32753,7 @@
         <f t="shared" si="58"/>
         <v>1313</v>
       </c>
-      <c r="AO91" s="14">
+      <c r="AO91" s="11">
         <f t="shared" si="43"/>
         <v>4705</v>
       </c>
@@ -33115,7 +33111,7 @@
         <f t="shared" si="58"/>
         <v>1472</v>
       </c>
-      <c r="AO92" s="14">
+      <c r="AO92" s="11">
         <f t="shared" si="43"/>
         <v>5189</v>
       </c>
@@ -33473,7 +33469,7 @@
         <f t="shared" si="58"/>
         <v>1457</v>
       </c>
-      <c r="AO93" s="14">
+      <c r="AO93" s="11">
         <f t="shared" si="43"/>
         <v>6124</v>
       </c>
@@ -33831,7 +33827,7 @@
         <f t="shared" si="58"/>
         <v>1559</v>
       </c>
-      <c r="AO94" s="14">
+      <c r="AO94" s="11">
         <f t="shared" si="43"/>
         <v>6456</v>
       </c>
@@ -34189,7 +34185,7 @@
         <f t="shared" si="58"/>
         <v>1784</v>
       </c>
-      <c r="AO95" s="14">
+      <c r="AO95" s="11">
         <f t="shared" si="43"/>
         <v>6552</v>
       </c>
@@ -34547,7 +34543,7 @@
         <f t="shared" si="58"/>
         <v>1210</v>
       </c>
-      <c r="AO96" s="14">
+      <c r="AO96" s="11">
         <f t="shared" si="43"/>
         <v>5630</v>
       </c>
@@ -34905,7 +34901,7 @@
         <f t="shared" si="58"/>
         <v>1611</v>
       </c>
-      <c r="AO97" s="14">
+      <c r="AO97" s="11">
         <f t="shared" si="43"/>
         <v>7224</v>
       </c>
@@ -35118,749 +35114,1056 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:94" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="16">
+    <row r="98" spans="1:94" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
         <v>202302</v>
       </c>
-      <c r="B98" s="17">
+      <c r="B98" s="13">
         <v>700</v>
       </c>
-      <c r="C98" s="16">
+      <c r="C98" s="12">
         <v>700</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="12">
         <v>700</v>
       </c>
-      <c r="E98" s="16">
+      <c r="E98" s="12">
         <v>700</v>
       </c>
-      <c r="F98" s="16">
+      <c r="F98" s="12">
         <v>700</v>
       </c>
-      <c r="G98" s="16">
+      <c r="G98" s="12">
         <v>700</v>
       </c>
-      <c r="H98" s="16">
+      <c r="H98" s="12">
         <v>575</v>
       </c>
-      <c r="I98" s="16">
+      <c r="I98" s="12">
         <v>500</v>
       </c>
-      <c r="J98" s="16">
+      <c r="J98" s="12">
         <v>450</v>
       </c>
-      <c r="K98" s="16">
+      <c r="K98" s="12">
         <v>450</v>
       </c>
-      <c r="L98" s="16">
+      <c r="L98" s="12">
         <v>375</v>
       </c>
-      <c r="M98" s="16">
+      <c r="M98" s="12">
         <v>375</v>
       </c>
-      <c r="N98" s="16">
+      <c r="N98" s="12">
         <v>275</v>
       </c>
-      <c r="O98" s="16">
+      <c r="O98" s="12">
         <v>7714</v>
       </c>
-      <c r="P98" s="17">
+      <c r="P98" s="13">
         <f t="shared" si="63"/>
         <v>9268</v>
       </c>
-      <c r="Q98" s="16">
+      <c r="Q98" s="12">
         <f t="shared" si="63"/>
         <v>7674</v>
       </c>
-      <c r="R98" s="16">
+      <c r="R98" s="12">
         <f t="shared" si="63"/>
         <v>8366</v>
       </c>
-      <c r="S98" s="16">
+      <c r="S98" s="12">
         <f t="shared" si="63"/>
         <v>8270</v>
       </c>
-      <c r="T98" s="16">
+      <c r="T98" s="12">
         <f t="shared" si="63"/>
         <v>7778</v>
       </c>
-      <c r="U98" s="16">
+      <c r="U98" s="12">
         <f t="shared" si="63"/>
         <v>7141</v>
       </c>
-      <c r="V98" s="16">
+      <c r="V98" s="12">
         <f t="shared" si="63"/>
         <v>6637</v>
       </c>
-      <c r="W98" s="16">
+      <c r="W98" s="12">
         <f t="shared" si="63"/>
         <v>6626</v>
       </c>
-      <c r="X98" s="16">
+      <c r="X98" s="12">
         <f t="shared" si="63"/>
         <v>6266</v>
       </c>
-      <c r="Y98" s="16">
+      <c r="Y98" s="12">
         <f t="shared" si="63"/>
         <v>5821</v>
       </c>
-      <c r="Z98" s="16">
+      <c r="Z98" s="12">
         <f t="shared" si="63"/>
         <v>5573</v>
       </c>
-      <c r="AA98" s="16">
+      <c r="AA98" s="12">
         <f t="shared" si="63"/>
         <v>4947</v>
       </c>
-      <c r="AB98" s="16">
+      <c r="AB98" s="12">
         <v>1674</v>
       </c>
-      <c r="AC98" s="16">
+      <c r="AC98" s="12">
         <f t="shared" si="42"/>
         <v>2760</v>
       </c>
-      <c r="AD98" s="16">
+      <c r="AD98" s="12">
         <f t="shared" si="58"/>
         <v>1166</v>
       </c>
-      <c r="AE98" s="16">
+      <c r="AE98" s="12">
         <f t="shared" si="58"/>
         <v>1842</v>
       </c>
-      <c r="AF98" s="16">
+      <c r="AF98" s="12">
         <f t="shared" si="58"/>
         <v>2044</v>
       </c>
-      <c r="AG98" s="16">
+      <c r="AG98" s="12">
         <f t="shared" si="58"/>
         <v>1961</v>
       </c>
-      <c r="AH98" s="16">
+      <c r="AH98" s="12">
         <f t="shared" si="58"/>
         <v>1814</v>
       </c>
-      <c r="AI98" s="16">
+      <c r="AI98" s="12">
         <f t="shared" si="58"/>
         <v>1654</v>
       </c>
-      <c r="AJ98" s="16">
+      <c r="AJ98" s="12">
         <f t="shared" si="58"/>
         <v>1952</v>
       </c>
-      <c r="AK98" s="16">
+      <c r="AK98" s="12">
         <f t="shared" si="58"/>
         <v>1932</v>
       </c>
-      <c r="AL98" s="16">
+      <c r="AL98" s="12">
         <f t="shared" si="58"/>
         <v>1822</v>
       </c>
-      <c r="AM98" s="16">
+      <c r="AM98" s="12">
         <f t="shared" si="58"/>
         <v>1894</v>
       </c>
-      <c r="AN98" s="16">
+      <c r="AN98" s="12">
         <f t="shared" si="58"/>
         <v>1473</v>
       </c>
-      <c r="AO98" s="16">
+      <c r="AO98" s="12">
         <f t="shared" si="43"/>
         <v>5872</v>
       </c>
-      <c r="AP98" s="16">
+      <c r="AP98" s="12">
         <f t="shared" si="44"/>
         <v>7224</v>
       </c>
-      <c r="AQ98" s="16">
+      <c r="AQ98" s="12">
         <f t="shared" si="45"/>
         <v>5713</v>
       </c>
-      <c r="AR98" s="16">
+      <c r="AR98" s="12">
         <f t="shared" si="46"/>
         <v>6552</v>
       </c>
-      <c r="AS98" s="16">
+      <c r="AS98" s="12">
         <f t="shared" si="47"/>
         <v>6616</v>
       </c>
-      <c r="AT98" s="16">
+      <c r="AT98" s="12">
         <f t="shared" si="48"/>
         <v>5826</v>
       </c>
-      <c r="AU98" s="16">
+      <c r="AU98" s="12">
         <f t="shared" si="49"/>
         <v>5209</v>
       </c>
-      <c r="AV98" s="16">
+      <c r="AV98" s="12">
         <f t="shared" si="50"/>
         <v>4815</v>
       </c>
-      <c r="AW98" s="16">
+      <c r="AW98" s="12">
         <f t="shared" si="51"/>
         <v>4732</v>
       </c>
-      <c r="AX98" s="16">
+      <c r="AX98" s="12">
         <f t="shared" si="52"/>
         <v>4793</v>
       </c>
-      <c r="AY98" s="16">
+      <c r="AY98" s="12">
         <f t="shared" si="53"/>
         <v>-51</v>
       </c>
-      <c r="AZ98" s="16">
+      <c r="AZ98" s="12">
         <f t="shared" si="54"/>
         <v>-1651</v>
       </c>
-      <c r="BA98" s="16">
+      <c r="BA98" s="12">
         <f t="shared" si="55"/>
         <v>-766</v>
       </c>
-      <c r="BB98" s="16">
+      <c r="BB98" s="12">
         <v>125222</v>
       </c>
-      <c r="BC98" s="16">
+      <c r="BC98" s="12">
         <f t="shared" si="38"/>
         <v>124827</v>
       </c>
-      <c r="BD98" s="16">
+      <c r="BD98" s="12">
         <f t="shared" si="59"/>
         <v>125408</v>
       </c>
-      <c r="BE98" s="16">
+      <c r="BE98" s="12">
         <f t="shared" si="59"/>
         <v>125341</v>
       </c>
-      <c r="BF98" s="16">
+      <c r="BF98" s="12">
         <f t="shared" si="59"/>
         <v>127614</v>
       </c>
-      <c r="BG98" s="16">
+      <c r="BG98" s="12">
         <f t="shared" si="59"/>
         <v>129070</v>
       </c>
-      <c r="BH98" s="16">
+      <c r="BH98" s="12">
         <f t="shared" si="59"/>
         <v>130789</v>
       </c>
-      <c r="BI98" s="16">
+      <c r="BI98" s="12">
         <f t="shared" si="59"/>
         <v>131451</v>
       </c>
-      <c r="BJ98" s="16">
+      <c r="BJ98" s="12">
         <f t="shared" si="59"/>
         <v>131416</v>
       </c>
-      <c r="BK98" s="16">
+      <c r="BK98" s="12">
         <f t="shared" si="59"/>
         <v>132193</v>
       </c>
-      <c r="BL98" s="16">
+      <c r="BL98" s="12">
         <f t="shared" si="59"/>
         <v>132612</v>
       </c>
-      <c r="BM98" s="16">
+      <c r="BM98" s="12">
         <f t="shared" si="59"/>
         <v>130706</v>
       </c>
-      <c r="BN98" s="16">
+      <c r="BN98" s="12">
         <f t="shared" si="59"/>
         <v>130339</v>
       </c>
-      <c r="BO98" s="16">
+      <c r="BO98" s="12">
         <v>54</v>
       </c>
-      <c r="BP98" s="16">
+      <c r="BP98" s="12">
         <f t="shared" si="39"/>
         <v>59</v>
       </c>
-      <c r="BQ98" s="16">
+      <c r="BQ98" s="12">
         <f t="shared" si="60"/>
         <v>55</v>
       </c>
-      <c r="BR98" s="16">
+      <c r="BR98" s="12">
         <f t="shared" si="60"/>
         <v>60</v>
       </c>
-      <c r="BS98" s="16">
+      <c r="BS98" s="12">
         <f t="shared" si="60"/>
         <v>64</v>
       </c>
-      <c r="BT98" s="16">
+      <c r="BT98" s="12">
         <f t="shared" si="60"/>
         <v>65</v>
       </c>
-      <c r="BU98" s="16">
+      <c r="BU98" s="12">
         <f t="shared" si="60"/>
         <v>70</v>
       </c>
-      <c r="BV98" s="16">
+      <c r="BV98" s="12">
         <f t="shared" si="60"/>
         <v>69</v>
       </c>
-      <c r="BW98" s="16">
+      <c r="BW98" s="12">
         <f t="shared" si="60"/>
         <v>85</v>
       </c>
-      <c r="BX98" s="16">
+      <c r="BX98" s="12">
         <f t="shared" si="60"/>
         <v>79</v>
       </c>
-      <c r="BY98" s="16">
+      <c r="BY98" s="12">
         <f t="shared" si="60"/>
         <v>128</v>
       </c>
-      <c r="BZ98" s="16">
+      <c r="BZ98" s="12">
         <f t="shared" si="60"/>
         <v>117</v>
       </c>
-      <c r="CA98" s="16">
+      <c r="CA98" s="12">
         <f t="shared" si="60"/>
         <v>117</v>
       </c>
-      <c r="CB98" s="16">
-        <f t="shared" si="56"/>
+      <c r="CB98" s="12">
+        <f>IF(CD98&gt;105,4,IF(CD98&gt;75,3,IF(CD98&lt;45,1,2)))</f>
         <v>3</v>
       </c>
-      <c r="CC98" s="16">
+      <c r="CC98" s="12">
         <v>96</v>
       </c>
-      <c r="CD98" s="16">
+      <c r="CD98" s="12">
         <f t="shared" si="40"/>
         <v>93</v>
       </c>
-      <c r="CE98" s="16">
+      <c r="CE98" s="12">
         <f t="shared" si="61"/>
         <v>88</v>
       </c>
-      <c r="CF98" s="16">
+      <c r="CF98" s="12">
         <f t="shared" si="61"/>
         <v>75</v>
       </c>
-      <c r="CG98" s="16">
+      <c r="CG98" s="12">
         <f t="shared" si="61"/>
         <v>80</v>
       </c>
-      <c r="CH98" s="16">
+      <c r="CH98" s="12">
         <f t="shared" si="61"/>
         <v>71</v>
       </c>
-      <c r="CI98" s="16">
+      <c r="CI98" s="12">
         <f t="shared" si="61"/>
         <v>67</v>
       </c>
-      <c r="CJ98" s="16">
+      <c r="CJ98" s="12">
         <f t="shared" si="61"/>
         <v>68</v>
       </c>
-      <c r="CK98" s="16">
+      <c r="CK98" s="12">
         <f t="shared" si="61"/>
         <v>66</v>
       </c>
-      <c r="CL98" s="16">
+      <c r="CL98" s="12">
         <f t="shared" si="61"/>
         <v>60</v>
       </c>
-      <c r="CM98" s="16">
+      <c r="CM98" s="12">
         <f t="shared" si="61"/>
         <v>62</v>
       </c>
-      <c r="CN98" s="16">
+      <c r="CN98" s="12">
         <f t="shared" si="61"/>
         <v>62</v>
       </c>
-      <c r="CO98" s="16">
+      <c r="CO98" s="12">
         <f t="shared" si="61"/>
         <v>67</v>
       </c>
-      <c r="CP98" s="16">
+      <c r="CP98" s="12">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:94" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="16">
+    <row r="99" spans="1:94" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
         <v>202303</v>
       </c>
-      <c r="B99" s="17">
+      <c r="B99" s="13">
         <v>700</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C99" s="12">
         <v>700</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="12">
         <v>700</v>
       </c>
-      <c r="E99" s="16">
+      <c r="E99" s="12">
         <v>700</v>
       </c>
-      <c r="F99" s="16">
+      <c r="F99" s="12">
         <v>700</v>
       </c>
-      <c r="G99" s="16">
+      <c r="G99" s="12">
         <v>700</v>
       </c>
-      <c r="H99" s="16">
+      <c r="H99" s="12">
         <v>575</v>
       </c>
-      <c r="I99" s="16">
+      <c r="I99" s="12">
         <v>500</v>
       </c>
-      <c r="J99" s="16">
+      <c r="J99" s="12">
         <v>450</v>
       </c>
-      <c r="K99" s="16">
+      <c r="K99" s="12">
         <v>450</v>
       </c>
-      <c r="L99" s="16">
+      <c r="L99" s="12">
         <v>375</v>
       </c>
-      <c r="M99" s="16">
+      <c r="M99" s="12">
         <v>375</v>
       </c>
-      <c r="N99" s="16">
+      <c r="N99" s="12">
         <v>275</v>
       </c>
-      <c r="P99" s="17">
+      <c r="O99" s="12">
+        <v>7773</v>
+      </c>
+      <c r="P99" s="13">
         <f t="shared" ref="P99" si="64">O98</f>
         <v>7714</v>
       </c>
-      <c r="Q99" s="16">
+      <c r="Q99" s="12">
         <f t="shared" ref="Q99" si="65">P98</f>
         <v>9268</v>
       </c>
-      <c r="R99" s="16">
+      <c r="R99" s="12">
         <f t="shared" ref="R99" si="66">Q98</f>
         <v>7674</v>
       </c>
-      <c r="S99" s="16">
+      <c r="S99" s="12">
         <f t="shared" ref="S99" si="67">R98</f>
         <v>8366</v>
       </c>
-      <c r="T99" s="16">
+      <c r="T99" s="12">
         <f t="shared" ref="T99" si="68">S98</f>
         <v>8270</v>
       </c>
-      <c r="U99" s="16">
+      <c r="U99" s="12">
         <f t="shared" ref="U99" si="69">T98</f>
         <v>7778</v>
       </c>
-      <c r="V99" s="16">
+      <c r="V99" s="12">
         <f t="shared" ref="V99" si="70">U98</f>
         <v>7141</v>
       </c>
-      <c r="W99" s="16">
+      <c r="W99" s="12">
         <f t="shared" ref="W99" si="71">V98</f>
         <v>6637</v>
       </c>
-      <c r="X99" s="16">
+      <c r="X99" s="12">
         <f t="shared" ref="X99" si="72">W98</f>
         <v>6626</v>
       </c>
-      <c r="Y99" s="16">
+      <c r="Y99" s="12">
         <f t="shared" ref="Y99" si="73">X98</f>
         <v>6266</v>
       </c>
-      <c r="Z99" s="16">
+      <c r="Z99" s="12">
         <f t="shared" ref="Z99" si="74">Y98</f>
         <v>5821</v>
       </c>
-      <c r="AA99" s="16">
+      <c r="AA99" s="12">
         <f t="shared" ref="AA99" si="75">Z98</f>
         <v>5573</v>
       </c>
-      <c r="AC99" s="16">
+      <c r="AB99" s="12">
+        <v>1788</v>
+      </c>
+      <c r="AC99" s="12">
         <f t="shared" ref="AC99" si="76">AB98</f>
         <v>1674</v>
       </c>
-      <c r="AD99" s="16">
+      <c r="AD99" s="12">
         <f t="shared" ref="AD99" si="77">AC98</f>
         <v>2760</v>
       </c>
-      <c r="AE99" s="16">
+      <c r="AE99" s="12">
         <f t="shared" ref="AE99" si="78">AD98</f>
         <v>1166</v>
       </c>
-      <c r="AF99" s="16">
+      <c r="AF99" s="12">
         <f t="shared" ref="AF99" si="79">AE98</f>
         <v>1842</v>
       </c>
-      <c r="AG99" s="16">
+      <c r="AG99" s="12">
         <f t="shared" ref="AG99" si="80">AF98</f>
         <v>2044</v>
       </c>
-      <c r="AH99" s="16">
+      <c r="AH99" s="12">
         <f t="shared" ref="AH99" si="81">AG98</f>
         <v>1961</v>
       </c>
-      <c r="AI99" s="16">
+      <c r="AI99" s="12">
         <f t="shared" ref="AI99" si="82">AH98</f>
         <v>1814</v>
       </c>
-      <c r="AJ99" s="16">
+      <c r="AJ99" s="12">
         <f t="shared" ref="AJ99" si="83">AI98</f>
         <v>1654</v>
       </c>
-      <c r="AK99" s="16">
+      <c r="AK99" s="12">
         <f t="shared" ref="AK99" si="84">AJ98</f>
         <v>1952</v>
       </c>
-      <c r="AL99" s="16">
+      <c r="AL99" s="12">
         <f t="shared" ref="AL99" si="85">AK98</f>
         <v>1932</v>
       </c>
-      <c r="AM99" s="16">
+      <c r="AM99" s="12">
         <f t="shared" ref="AM99" si="86">AL98</f>
         <v>1822</v>
       </c>
-      <c r="AN99" s="16">
+      <c r="AN99" s="12">
         <f t="shared" ref="AN99" si="87">AM98</f>
         <v>1894</v>
       </c>
-      <c r="AP99" s="16">
+      <c r="AP99" s="12">
         <f>IF(CC99=1,P99-AD99,IF(CC99=2,P99-AE99,P99-AF99))</f>
         <v>5872</v>
       </c>
-      <c r="AQ99" s="16">
+      <c r="AQ99" s="12">
         <f t="shared" ref="AQ99" si="88">IF(CD99=1,Q99-AE99,IF(CD99=2,Q99-AF99,Q99-AG99))</f>
         <v>7224</v>
       </c>
-      <c r="AR99" s="16">
+      <c r="AR99" s="12">
         <f t="shared" ref="AR99" si="89">IF(CE99=1,R99-AF99,IF(CE99=2,R99-AG99,R99-AH99))</f>
         <v>5713</v>
       </c>
-      <c r="AS99" s="16">
+      <c r="AS99" s="12">
         <f t="shared" ref="AS99" si="90">IF(CF99=1,S99-AG99,IF(CF99=2,S99-AH99,S99-AI99))</f>
         <v>6552</v>
       </c>
-      <c r="AT99" s="16">
+      <c r="AT99" s="12">
         <f t="shared" ref="AT99" si="91">IF(CG99=1,T99-AH99,IF(CG99=2,T99-AI99,T99-AJ99))</f>
         <v>6616</v>
       </c>
-      <c r="AU99" s="16">
+      <c r="AU99" s="12">
         <f t="shared" ref="AU99" si="92">IF(CH99=1,U99-AI99,IF(CH99=2,U99-AJ99,U99-AK99))</f>
         <v>5826</v>
       </c>
-      <c r="AV99" s="16">
+      <c r="AV99" s="12">
         <f t="shared" ref="AV99" si="93">IF(CI99=1,V99-AJ99,IF(CI99=2,V99-AK99,V99-AL99))</f>
         <v>5209</v>
       </c>
-      <c r="AW99" s="16">
+      <c r="AW99" s="12">
         <f t="shared" ref="AW99" si="94">IF(CJ99=1,W99-AK99,IF(CJ99=2,W99-AL99,W99-AM99))</f>
         <v>4815</v>
       </c>
-      <c r="AX99" s="16">
+      <c r="AX99" s="12">
         <f t="shared" ref="AX99" si="95">IF(CK99=1,X99-AL99,IF(CK99=2,X99-AM99,X99-AN99))</f>
         <v>4732</v>
       </c>
-      <c r="AY99" s="16">
+      <c r="AY99" s="12">
         <f t="shared" ref="AY99" si="96">IF(CL99=1,Y99-AM99,IF(CL99=2,Y99-AN99,Y99-AO99))</f>
         <v>6266</v>
       </c>
-      <c r="AZ99" s="16">
+      <c r="AZ99" s="12">
         <f t="shared" ref="AZ99" si="97">IF(CM99=1,Z99-AN99,IF(CM99=2,Z99-AO99,Z99-AP99))</f>
         <v>-51</v>
       </c>
-      <c r="BA99" s="16">
+      <c r="BA99" s="12">
         <f t="shared" ref="BA99" si="98">IF(CN99=1,AA99-AO99,IF(CN99=2,AA99-AP99,AA99-AQ99))</f>
         <v>-1651</v>
       </c>
-      <c r="BC99" s="16">
+      <c r="BB99" s="12">
+        <v>125299</v>
+      </c>
+      <c r="BC99" s="12">
         <f t="shared" ref="BC99" si="99">BB98</f>
         <v>125222</v>
       </c>
-      <c r="BD99" s="16">
+      <c r="BD99" s="12">
         <f t="shared" ref="BD99" si="100">BC98</f>
         <v>124827</v>
       </c>
-      <c r="BE99" s="16">
+      <c r="BE99" s="12">
         <f t="shared" ref="BE99" si="101">BD98</f>
         <v>125408</v>
       </c>
-      <c r="BF99" s="16">
+      <c r="BF99" s="12">
         <f t="shared" ref="BF99" si="102">BE98</f>
         <v>125341</v>
       </c>
-      <c r="BG99" s="16">
+      <c r="BG99" s="12">
         <f t="shared" ref="BG99" si="103">BF98</f>
         <v>127614</v>
       </c>
-      <c r="BH99" s="16">
+      <c r="BH99" s="12">
         <f t="shared" ref="BH99" si="104">BG98</f>
         <v>129070</v>
       </c>
-      <c r="BI99" s="16">
+      <c r="BI99" s="12">
         <f t="shared" ref="BI99" si="105">BH98</f>
         <v>130789</v>
       </c>
-      <c r="BJ99" s="16">
+      <c r="BJ99" s="12">
         <f t="shared" ref="BJ99" si="106">BI98</f>
         <v>131451</v>
       </c>
-      <c r="BK99" s="16">
+      <c r="BK99" s="12">
         <f t="shared" ref="BK99" si="107">BJ98</f>
         <v>131416</v>
       </c>
-      <c r="BL99" s="16">
+      <c r="BL99" s="12">
         <f t="shared" ref="BL99" si="108">BK98</f>
         <v>132193</v>
       </c>
-      <c r="BM99" s="16">
+      <c r="BM99" s="12">
         <f t="shared" ref="BM99" si="109">BL98</f>
         <v>132612</v>
       </c>
-      <c r="BN99" s="16">
+      <c r="BN99" s="12">
         <f t="shared" ref="BN99" si="110">BM98</f>
         <v>130706</v>
       </c>
-      <c r="BP99" s="16">
+      <c r="BO99" s="12">
+        <v>50</v>
+      </c>
+      <c r="BP99" s="12">
         <f t="shared" ref="BP99" si="111">BO98</f>
         <v>54</v>
       </c>
-      <c r="BQ99" s="16">
+      <c r="BQ99" s="12">
         <f t="shared" ref="BQ99" si="112">BP98</f>
         <v>59</v>
       </c>
-      <c r="BR99" s="16">
+      <c r="BR99" s="12">
         <f t="shared" ref="BR99" si="113">BQ98</f>
         <v>55</v>
       </c>
-      <c r="BS99" s="16">
+      <c r="BS99" s="12">
         <f t="shared" ref="BS99" si="114">BR98</f>
         <v>60</v>
       </c>
-      <c r="BT99" s="16">
+      <c r="BT99" s="12">
         <f t="shared" ref="BT99" si="115">BS98</f>
         <v>64</v>
       </c>
-      <c r="BU99" s="16">
+      <c r="BU99" s="12">
         <f t="shared" ref="BU99" si="116">BT98</f>
         <v>65</v>
       </c>
-      <c r="BV99" s="16">
+      <c r="BV99" s="12">
         <f t="shared" ref="BV99" si="117">BU98</f>
         <v>70</v>
       </c>
-      <c r="BW99" s="16">
+      <c r="BW99" s="12">
         <f t="shared" ref="BW99" si="118">BV98</f>
         <v>69</v>
       </c>
-      <c r="BX99" s="16">
+      <c r="BX99" s="12">
         <f t="shared" ref="BX99" si="119">BW98</f>
         <v>85</v>
       </c>
-      <c r="BY99" s="16">
+      <c r="BY99" s="12">
         <f t="shared" ref="BY99" si="120">BX98</f>
         <v>79</v>
       </c>
-      <c r="BZ99" s="16">
+      <c r="BZ99" s="12">
         <f t="shared" ref="BZ99" si="121">BY98</f>
         <v>128</v>
       </c>
-      <c r="CA99" s="16">
+      <c r="CA99" s="12">
         <f t="shared" ref="CA99" si="122">BZ98</f>
         <v>117</v>
       </c>
-      <c r="CD99" s="16">
+      <c r="CB99" s="12">
+        <f>IF(CD99&gt;105,4,IF(CD99&gt;75,3,IF(CD99&lt;45,1,2)))</f>
+        <v>3</v>
+      </c>
+      <c r="CC99" s="12">
+        <v>120</v>
+      </c>
+      <c r="CD99" s="12">
         <f t="shared" ref="CD99" si="123">CC98</f>
         <v>96</v>
       </c>
-      <c r="CE99" s="16">
+      <c r="CE99" s="12">
         <f t="shared" ref="CE99" si="124">CD98</f>
         <v>93</v>
       </c>
-      <c r="CF99" s="16">
+      <c r="CF99" s="12">
         <f t="shared" ref="CF99" si="125">CE98</f>
         <v>88</v>
       </c>
-      <c r="CG99" s="16">
+      <c r="CG99" s="12">
         <f t="shared" ref="CG99" si="126">CF98</f>
         <v>75</v>
       </c>
-      <c r="CH99" s="16">
+      <c r="CH99" s="12">
         <f t="shared" ref="CH99" si="127">CG98</f>
         <v>80</v>
       </c>
-      <c r="CI99" s="16">
+      <c r="CI99" s="12">
         <f t="shared" ref="CI99" si="128">CH98</f>
         <v>71</v>
       </c>
-      <c r="CJ99" s="16">
+      <c r="CJ99" s="12">
         <f t="shared" ref="CJ99" si="129">CI98</f>
         <v>67</v>
       </c>
-      <c r="CK99" s="16">
+      <c r="CK99" s="12">
         <f t="shared" ref="CK99" si="130">CJ98</f>
         <v>68</v>
       </c>
-      <c r="CL99" s="16">
+      <c r="CL99" s="12">
         <f t="shared" ref="CL99" si="131">CK98</f>
         <v>66</v>
       </c>
-      <c r="CM99" s="16">
+      <c r="CM99" s="12">
         <f t="shared" ref="CM99" si="132">CL98</f>
         <v>60</v>
       </c>
-      <c r="CN99" s="16">
+      <c r="CN99" s="12">
         <f t="shared" ref="CN99" si="133">CM98</f>
         <v>62</v>
       </c>
-      <c r="CO99" s="16">
+      <c r="CO99" s="12">
         <f t="shared" ref="CO99" si="134">CN98</f>
         <v>62</v>
       </c>
-      <c r="CP99" s="16">
+      <c r="CP99" s="12">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:94" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-      <c r="G100" s="3"/>
-      <c r="H100" s="3"/>
-      <c r="I100" s="3"/>
-      <c r="J100" s="3"/>
-      <c r="K100" s="3"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3"/>
-      <c r="N100" s="3"/>
-      <c r="O100" s="11"/>
-      <c r="P100" s="3"/>
-      <c r="Q100" s="3"/>
-      <c r="R100" s="3"/>
-      <c r="S100" s="3"/>
-      <c r="T100" s="3"/>
-      <c r="U100" s="3"/>
-      <c r="V100" s="3"/>
-      <c r="W100" s="3"/>
-      <c r="X100" s="3"/>
-      <c r="Y100" s="3"/>
-      <c r="Z100" s="3"/>
-      <c r="AA100" s="3"/>
-      <c r="AB100" s="2"/>
-      <c r="AC100" s="3"/>
-      <c r="AD100" s="3"/>
-      <c r="AE100" s="3"/>
-      <c r="AF100" s="3"/>
-      <c r="AG100" s="3"/>
-      <c r="AH100" s="3"/>
-      <c r="AI100" s="3"/>
-      <c r="AJ100" s="3"/>
-      <c r="AK100" s="3"/>
-      <c r="AL100" s="3"/>
-      <c r="AM100" s="3"/>
-      <c r="AN100" s="3"/>
-      <c r="AO100" s="15"/>
-      <c r="BB100" s="12"/>
-      <c r="BO100" s="13"/>
-      <c r="BP100" s="1"/>
-      <c r="BQ100" s="1"/>
-      <c r="BR100" s="1"/>
-      <c r="BS100" s="1"/>
-      <c r="CB100"/>
-      <c r="CO100"/>
+    <row r="100" spans="1:94" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>202303</v>
+      </c>
+      <c r="B100" s="13">
+        <v>700</v>
+      </c>
+      <c r="C100" s="12">
+        <v>700</v>
+      </c>
+      <c r="D100" s="12">
+        <v>700</v>
+      </c>
+      <c r="E100" s="12">
+        <v>700</v>
+      </c>
+      <c r="F100" s="12">
+        <v>700</v>
+      </c>
+      <c r="G100" s="12">
+        <v>700</v>
+      </c>
+      <c r="H100" s="12">
+        <v>575</v>
+      </c>
+      <c r="I100" s="12">
+        <v>500</v>
+      </c>
+      <c r="J100" s="12">
+        <v>450</v>
+      </c>
+      <c r="K100" s="12">
+        <v>450</v>
+      </c>
+      <c r="L100" s="12">
+        <v>375</v>
+      </c>
+      <c r="M100" s="12">
+        <v>375</v>
+      </c>
+      <c r="N100" s="12">
+        <v>275</v>
+      </c>
+      <c r="P100" s="13">
+        <f t="shared" ref="P100" si="135">O99</f>
+        <v>7773</v>
+      </c>
+      <c r="Q100" s="12">
+        <f t="shared" ref="Q100" si="136">P99</f>
+        <v>7714</v>
+      </c>
+      <c r="R100" s="12">
+        <f t="shared" ref="R100" si="137">Q99</f>
+        <v>9268</v>
+      </c>
+      <c r="S100" s="12">
+        <f t="shared" ref="S100" si="138">R99</f>
+        <v>7674</v>
+      </c>
+      <c r="T100" s="12">
+        <f t="shared" ref="T100" si="139">S99</f>
+        <v>8366</v>
+      </c>
+      <c r="U100" s="12">
+        <f t="shared" ref="U100" si="140">T99</f>
+        <v>8270</v>
+      </c>
+      <c r="V100" s="12">
+        <f t="shared" ref="V100" si="141">U99</f>
+        <v>7778</v>
+      </c>
+      <c r="W100" s="12">
+        <f t="shared" ref="W100" si="142">V99</f>
+        <v>7141</v>
+      </c>
+      <c r="X100" s="12">
+        <f t="shared" ref="X100" si="143">W99</f>
+        <v>6637</v>
+      </c>
+      <c r="Y100" s="12">
+        <f t="shared" ref="Y100" si="144">X99</f>
+        <v>6626</v>
+      </c>
+      <c r="Z100" s="12">
+        <f t="shared" ref="Z100" si="145">Y99</f>
+        <v>6266</v>
+      </c>
+      <c r="AA100" s="12">
+        <f t="shared" ref="AA100" si="146">Z99</f>
+        <v>5821</v>
+      </c>
+      <c r="AC100" s="12">
+        <f t="shared" ref="AC100" si="147">AB99</f>
+        <v>1788</v>
+      </c>
+      <c r="AD100" s="12">
+        <f t="shared" ref="AD100" si="148">AC99</f>
+        <v>1674</v>
+      </c>
+      <c r="AE100" s="12">
+        <f t="shared" ref="AE100" si="149">AD99</f>
+        <v>2760</v>
+      </c>
+      <c r="AF100" s="12">
+        <f t="shared" ref="AF100" si="150">AE99</f>
+        <v>1166</v>
+      </c>
+      <c r="AG100" s="12">
+        <f t="shared" ref="AG100" si="151">AF99</f>
+        <v>1842</v>
+      </c>
+      <c r="AH100" s="12">
+        <f t="shared" ref="AH100" si="152">AG99</f>
+        <v>2044</v>
+      </c>
+      <c r="AI100" s="12">
+        <f t="shared" ref="AI100" si="153">AH99</f>
+        <v>1961</v>
+      </c>
+      <c r="AJ100" s="12">
+        <f t="shared" ref="AJ100" si="154">AI99</f>
+        <v>1814</v>
+      </c>
+      <c r="AK100" s="12">
+        <f t="shared" ref="AK100" si="155">AJ99</f>
+        <v>1654</v>
+      </c>
+      <c r="AL100" s="12">
+        <f t="shared" ref="AL100" si="156">AK99</f>
+        <v>1952</v>
+      </c>
+      <c r="AM100" s="12">
+        <f t="shared" ref="AM100" si="157">AL99</f>
+        <v>1932</v>
+      </c>
+      <c r="AN100" s="12">
+        <f t="shared" ref="AN100" si="158">AM99</f>
+        <v>1822</v>
+      </c>
+      <c r="AP100" s="12">
+        <f>IF(CC100=1,P100-AD100,IF(CC100=2,P100-AE100,P100-AF100))</f>
+        <v>6607</v>
+      </c>
+      <c r="AQ100" s="12">
+        <f t="shared" ref="AQ100" si="159">IF(CD100=1,Q100-AE100,IF(CD100=2,Q100-AF100,Q100-AG100))</f>
+        <v>5872</v>
+      </c>
+      <c r="AR100" s="12">
+        <f t="shared" ref="AR100" si="160">IF(CE100=1,R100-AF100,IF(CE100=2,R100-AG100,R100-AH100))</f>
+        <v>7224</v>
+      </c>
+      <c r="AS100" s="12">
+        <f t="shared" ref="AS100" si="161">IF(CF100=1,S100-AG100,IF(CF100=2,S100-AH100,S100-AI100))</f>
+        <v>5713</v>
+      </c>
+      <c r="AT100" s="12">
+        <f t="shared" ref="AT100" si="162">IF(CG100=1,T100-AH100,IF(CG100=2,T100-AI100,T100-AJ100))</f>
+        <v>6552</v>
+      </c>
+      <c r="AU100" s="12">
+        <f t="shared" ref="AU100" si="163">IF(CH100=1,U100-AI100,IF(CH100=2,U100-AJ100,U100-AK100))</f>
+        <v>6616</v>
+      </c>
+      <c r="AV100" s="12">
+        <f t="shared" ref="AV100" si="164">IF(CI100=1,V100-AJ100,IF(CI100=2,V100-AK100,V100-AL100))</f>
+        <v>5826</v>
+      </c>
+      <c r="AW100" s="12">
+        <f t="shared" ref="AW100" si="165">IF(CJ100=1,W100-AK100,IF(CJ100=2,W100-AL100,W100-AM100))</f>
+        <v>5209</v>
+      </c>
+      <c r="AX100" s="12">
+        <f t="shared" ref="AX100" si="166">IF(CK100=1,X100-AL100,IF(CK100=2,X100-AM100,X100-AN100))</f>
+        <v>4815</v>
+      </c>
+      <c r="AY100" s="12">
+        <f t="shared" ref="AY100" si="167">IF(CL100=1,Y100-AM100,IF(CL100=2,Y100-AN100,Y100-AO100))</f>
+        <v>6626</v>
+      </c>
+      <c r="AZ100" s="12">
+        <f t="shared" ref="AZ100" si="168">IF(CM100=1,Z100-AN100,IF(CM100=2,Z100-AO100,Z100-AP100))</f>
+        <v>-341</v>
+      </c>
+      <c r="BA100" s="12">
+        <f t="shared" ref="BA100" si="169">IF(CN100=1,AA100-AO100,IF(CN100=2,AA100-AP100,AA100-AQ100))</f>
+        <v>-51</v>
+      </c>
+      <c r="BC100" s="12">
+        <f t="shared" ref="BC100" si="170">BB99</f>
+        <v>125299</v>
+      </c>
+      <c r="BD100" s="12">
+        <f t="shared" ref="BD100" si="171">BC99</f>
+        <v>125222</v>
+      </c>
+      <c r="BE100" s="12">
+        <f t="shared" ref="BE100" si="172">BD99</f>
+        <v>124827</v>
+      </c>
+      <c r="BF100" s="12">
+        <f t="shared" ref="BF100" si="173">BE99</f>
+        <v>125408</v>
+      </c>
+      <c r="BG100" s="12">
+        <f t="shared" ref="BG100" si="174">BF99</f>
+        <v>125341</v>
+      </c>
+      <c r="BH100" s="12">
+        <f t="shared" ref="BH100" si="175">BG99</f>
+        <v>127614</v>
+      </c>
+      <c r="BI100" s="12">
+        <f t="shared" ref="BI100" si="176">BH99</f>
+        <v>129070</v>
+      </c>
+      <c r="BJ100" s="12">
+        <f t="shared" ref="BJ100" si="177">BI99</f>
+        <v>130789</v>
+      </c>
+      <c r="BK100" s="12">
+        <f t="shared" ref="BK100" si="178">BJ99</f>
+        <v>131451</v>
+      </c>
+      <c r="BL100" s="12">
+        <f t="shared" ref="BL100" si="179">BK99</f>
+        <v>131416</v>
+      </c>
+      <c r="BM100" s="12">
+        <f t="shared" ref="BM100" si="180">BL99</f>
+        <v>132193</v>
+      </c>
+      <c r="BN100" s="12">
+        <f t="shared" ref="BN100" si="181">BM99</f>
+        <v>132612</v>
+      </c>
+      <c r="BP100" s="12">
+        <f t="shared" ref="BP100" si="182">BO99</f>
+        <v>50</v>
+      </c>
+      <c r="BQ100" s="12">
+        <f t="shared" ref="BQ100" si="183">BP99</f>
+        <v>54</v>
+      </c>
+      <c r="BR100" s="12">
+        <f t="shared" ref="BR100" si="184">BQ99</f>
+        <v>59</v>
+      </c>
+      <c r="BS100" s="12">
+        <f t="shared" ref="BS100" si="185">BR99</f>
+        <v>55</v>
+      </c>
+      <c r="BT100" s="12">
+        <f t="shared" ref="BT100" si="186">BS99</f>
+        <v>60</v>
+      </c>
+      <c r="BU100" s="12">
+        <f t="shared" ref="BU100" si="187">BT99</f>
+        <v>64</v>
+      </c>
+      <c r="BV100" s="12">
+        <f t="shared" ref="BV100" si="188">BU99</f>
+        <v>65</v>
+      </c>
+      <c r="BW100" s="12">
+        <f t="shared" ref="BW100" si="189">BV99</f>
+        <v>70</v>
+      </c>
+      <c r="BX100" s="12">
+        <f t="shared" ref="BX100" si="190">BW99</f>
+        <v>69</v>
+      </c>
+      <c r="BY100" s="12">
+        <f t="shared" ref="BY100" si="191">BX99</f>
+        <v>85</v>
+      </c>
+      <c r="BZ100" s="12">
+        <f t="shared" ref="BZ100" si="192">BY99</f>
+        <v>79</v>
+      </c>
+      <c r="CA100" s="12">
+        <f t="shared" ref="CA100" si="193">BZ99</f>
+        <v>128</v>
+      </c>
+      <c r="CB100" s="12">
+        <f>IF(CD100&gt;105,4,IF(CD100&gt;75,3,IF(CD100&lt;45,1,2)))</f>
+        <v>4</v>
+      </c>
+      <c r="CD100" s="12">
+        <f t="shared" ref="CD100" si="194">CC99</f>
+        <v>120</v>
+      </c>
+      <c r="CE100" s="12">
+        <f t="shared" ref="CE100" si="195">CD99</f>
+        <v>96</v>
+      </c>
+      <c r="CF100" s="12">
+        <f t="shared" ref="CF100" si="196">CE99</f>
+        <v>93</v>
+      </c>
+      <c r="CG100" s="12">
+        <f t="shared" ref="CG100" si="197">CF99</f>
+        <v>88</v>
+      </c>
+      <c r="CH100" s="12">
+        <f t="shared" ref="CH100" si="198">CG99</f>
+        <v>75</v>
+      </c>
+      <c r="CI100" s="12">
+        <f t="shared" ref="CI100" si="199">CH99</f>
+        <v>80</v>
+      </c>
+      <c r="CJ100" s="12">
+        <f t="shared" ref="CJ100" si="200">CI99</f>
+        <v>71</v>
+      </c>
+      <c r="CK100" s="12">
+        <f t="shared" ref="CK100" si="201">CJ99</f>
+        <v>67</v>
+      </c>
+      <c r="CL100" s="12">
+        <f t="shared" ref="CL100" si="202">CK99</f>
+        <v>68</v>
+      </c>
+      <c r="CM100" s="12">
+        <f t="shared" ref="CM100" si="203">CL99</f>
+        <v>66</v>
+      </c>
+      <c r="CN100" s="12">
+        <f t="shared" ref="CN100" si="204">CM99</f>
+        <v>60</v>
+      </c>
+      <c r="CO100" s="12">
+        <f t="shared" ref="CO100" si="205">CN99</f>
+        <v>62</v>
+      </c>
+      <c r="CP100" s="12">
+        <v>98</v>
+      </c>
     </row>
     <row r="101" spans="1:94" x14ac:dyDescent="0.25">
       <c r="A101" s="1"/>
